--- a/pcb/R1000A_BOM.xlsx
+++ b/pcb/R1000A_BOM.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500"/>
+    <workbookView xWindow="2140" yWindow="1100" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="R1000A_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Grouped" sheetId="2" r:id="rId1"/>
+    <sheet name="R1000A_BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="264">
   <si>
     <t>Reference</t>
   </si>
@@ -95,9 +96,6 @@
     <t>600Ohms</t>
   </si>
   <si>
-    <t>Wurth Electronics Inc</t>
-  </si>
-  <si>
     <t>DLED1</t>
   </si>
   <si>
@@ -693,6 +691,135 @@
   </si>
   <si>
     <t>Lite-On Inc.</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB103</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN120</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN180</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>CL21A226KPCLRNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samsung Electro-Mechanics America, Inc.</t>
+  </si>
+  <si>
+    <t>CL10B475KQ8NQNC</t>
+  </si>
+  <si>
+    <t>GRM219R6YA475KA73D</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>C0603C682K5RACTU</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-0733RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-071K5L</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0714KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>AC0603FR-0727KL</t>
+  </si>
+  <si>
+    <t>AC0603FR-0751KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-076K04L</t>
+  </si>
+  <si>
+    <t>RC0603FR-0766K5L</t>
+  </si>
+  <si>
+    <t>RC0603FR-079K76L</t>
+  </si>
+  <si>
+    <t>BK1608HW601-T</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>J01,J02,J03,J04,J05,J06,J07,J08,J09,J10,J11,J12,J13,J14,J15</t>
+  </si>
+  <si>
+    <t>S1,S2</t>
+  </si>
+  <si>
+    <t>J80,J81,J82</t>
+  </si>
+  <si>
+    <t>D2,DLED5</t>
+  </si>
+  <si>
+    <t>DLED1,DLED2,DLED3,DLED4</t>
+  </si>
+  <si>
+    <t>R28,R30</t>
+  </si>
+  <si>
+    <t>C13,C19,C10,C11,C22,C25,C26,C27,C4,C5,C6,C7</t>
+  </si>
+  <si>
+    <t>C15,C16,C24</t>
+  </si>
+  <si>
+    <t>C8,C9</t>
+  </si>
+  <si>
+    <t>C12,C18</t>
+  </si>
+  <si>
+    <t>C2,C20,C21,C3</t>
+  </si>
+  <si>
+    <t>R29,R31</t>
+  </si>
+  <si>
+    <t>R10,R11</t>
+  </si>
+  <si>
+    <t>R13,R17,R18,R20,R21,R22,R26,R32,R33,R34,R35,R36,R37,R67,R70</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5</t>
+  </si>
+  <si>
+    <t>R19,R27,R6</t>
   </si>
 </sst>
 </file>
@@ -741,22 +868,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1032,17 +1186,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>673298000</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C58">
+    <sortCondition ref="C2:C58"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -1086,13 +1835,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2">
         <v>673298000</v>
@@ -1106,234 +1855,234 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>742792651</v>
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
         <v>103</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
         <v>103</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,7 +2115,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1380,156 +2129,156 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
         <v>120</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>121</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
         <v>138</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>139</v>
       </c>
-      <c r="C29" t="s">
-        <v>140</v>
-      </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
         <v>175</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>176</v>
       </c>
-      <c r="C33" t="s">
-        <v>177</v>
-      </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1537,187 +2286,187 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
         <v>74</v>
-      </c>
-      <c r="C42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
         <v>198</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
         <v>199</v>
-      </c>
-      <c r="C43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>191</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>192</v>
-      </c>
-      <c r="D44" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
         <v>170</v>
-      </c>
-      <c r="B45" t="s">
-        <v>171</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H46" s="1">
         <v>0.01</v>
       </c>
       <c r="I46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J46">
         <v>0.03</v>
@@ -1725,22 +2474,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
-        <v>162</v>
-      </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" s="1">
         <v>0.01</v>
       </c>
       <c r="I47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J47">
         <v>0.03</v>
@@ -1748,89 +2497,95 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>77</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>78</v>
-      </c>
-      <c r="D48" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
         <v>124</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>125</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
         <v>145</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s">
         <v>146</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>87</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>88</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" t="s">
         <v>166</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>167</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>168</v>
-      </c>
-      <c r="D52" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" t="s">
         <v>34</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>35</v>
       </c>
-      <c r="F53" t="s">
-        <v>36</v>
-      </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="H53" s="1">
         <v>0.1</v>
@@ -1838,19 +2593,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" t="s">
         <v>34</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>35</v>
       </c>
-      <c r="F54" t="s">
-        <v>36</v>
-      </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="H54" s="1">
         <v>0.1</v>
@@ -1858,19 +2619,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>35</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>152</v>
       </c>
       <c r="H55" s="1">
         <v>0.1</v>
@@ -1878,19 +2645,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>35</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>152</v>
       </c>
       <c r="H56" s="1">
         <v>0.1</v>
@@ -1898,19 +2671,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>35</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
       </c>
       <c r="H57" s="1">
         <v>0.1</v>
@@ -1918,19 +2697,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" t="s">
         <v>34</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>35</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
       </c>
       <c r="H58" s="1">
         <v>0.1</v>
@@ -1938,19 +2723,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
         <v>34</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
       </c>
       <c r="H59" s="1">
         <v>0.1</v>
@@ -1958,19 +2749,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" t="s">
         <v>34</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>35</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>36</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
       </c>
       <c r="H60" s="1">
         <v>0.1</v>
@@ -1978,19 +2775,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" t="s">
         <v>34</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>35</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
       </c>
       <c r="H61" s="1">
         <v>0.1</v>
@@ -1998,19 +2801,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
         <v>33</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
         <v>34</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>35</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
       </c>
       <c r="H62" s="1">
         <v>0.1</v>
@@ -2018,19 +2827,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" t="s">
         <v>34</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>35</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
       </c>
       <c r="H63" s="1">
         <v>0.1</v>
@@ -2038,19 +2853,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" t="s">
         <v>34</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>35</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>37</v>
       </c>
       <c r="H64" s="1">
         <v>0.1</v>
@@ -2058,19 +2879,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" t="s">
-        <v>57</v>
-      </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H65" s="1">
         <v>0.1</v>
@@ -2078,19 +2905,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" t="s">
+        <v>222</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H66" s="1">
         <v>0.1</v>
@@ -2098,19 +2931,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>188</v>
-      </c>
-      <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>189</v>
       </c>
       <c r="H67" s="1">
         <v>0.1</v>
@@ -2118,19 +2957,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
       </c>
       <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>44</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>45</v>
       </c>
       <c r="H68" s="1">
         <v>0.1</v>
@@ -2138,19 +2983,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" t="s">
         <v>43</v>
       </c>
-      <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
         <v>44</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>45</v>
       </c>
       <c r="H69" s="1">
         <v>0.1</v>
@@ -2158,19 +3009,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" t="s">
+        <v>224</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" s="1">
         <v>0.1</v>
@@ -2178,19 +3035,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
         <v>53</v>
       </c>
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>54</v>
-      </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="1">
         <v>0.1</v>
@@ -2198,19 +3061,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" t="s">
         <v>186</v>
       </c>
-      <c r="B72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" t="s">
-        <v>187</v>
-      </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H72" s="1">
         <v>0.1</v>
@@ -2218,19 +3087,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" t="s">
         <v>135</v>
       </c>
-      <c r="E73" t="s">
-        <v>136</v>
-      </c>
       <c r="F73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
         <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
       </c>
       <c r="H73" s="1">
         <v>0.1</v>
@@ -2238,19 +3113,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
         <v>148</v>
-      </c>
-      <c r="B74" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>149</v>
       </c>
       <c r="H74" s="1">
         <v>0.1</v>
@@ -2258,19 +3139,25 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" t="s">
         <v>135</v>
       </c>
-      <c r="E75" t="s">
-        <v>136</v>
-      </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H75" s="1">
         <v>0.1</v>
@@ -2278,19 +3165,25 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" t="s">
         <v>135</v>
       </c>
-      <c r="E76" t="s">
-        <v>136</v>
-      </c>
       <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
         <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
       </c>
       <c r="H76" s="1">
         <v>0.1</v>
@@ -2298,19 +3191,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" t="s">
         <v>132</v>
       </c>
-      <c r="B77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>133</v>
-      </c>
       <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
         <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
       </c>
       <c r="H77" s="1">
         <v>0.1</v>
@@ -2318,19 +3217,25 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="s">
-        <v>158</v>
       </c>
       <c r="H78" s="1">
         <v>0.1</v>
@@ -2338,19 +3243,25 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" t="s">
         <v>154</v>
       </c>
-      <c r="B79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" t="s">
-        <v>155</v>
-      </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H79" s="1">
         <v>0.1</v>
@@ -2358,16 +3269,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" t="s">
+        <v>233</v>
       </c>
       <c r="H80" s="1">
         <v>0.05</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2375,16 +3292,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" t="s">
+        <v>233</v>
       </c>
       <c r="H81" s="1">
         <v>0.05</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -2392,16 +3315,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
         <v>47</v>
       </c>
-      <c r="B82" t="s">
-        <v>48</v>
+      <c r="C82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" t="s">
+        <v>234</v>
       </c>
       <c r="H82" s="1">
         <v>0.05</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>33</v>
@@ -2409,16 +3338,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" t="s">
+        <v>234</v>
       </c>
       <c r="H83" s="1">
         <v>0.05</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>33</v>
@@ -2426,534 +3361,720 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" t="s">
+        <v>235</v>
       </c>
       <c r="H84" s="1">
         <v>0.05</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
       </c>
       <c r="H85" s="1">
         <v>0.05</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" t="s">
+        <v>236</v>
       </c>
       <c r="H86" s="1">
         <v>0.05</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" t="s">
+        <v>236</v>
       </c>
       <c r="H87" s="1">
         <v>0.05</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" t="s">
+        <v>236</v>
       </c>
       <c r="H88" s="1">
         <v>0.05</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
+        <v>236</v>
       </c>
       <c r="H89" s="1">
         <v>0.05</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" t="s">
+        <v>236</v>
       </c>
       <c r="H90" s="1">
         <v>0.05</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>236</v>
       </c>
       <c r="H91" s="1">
         <v>0.05</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>236</v>
       </c>
       <c r="H92" s="1">
         <v>0.05</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" t="s">
+        <v>236</v>
       </c>
       <c r="H93" s="1">
         <v>0.05</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" t="s">
+        <v>236</v>
       </c>
       <c r="H94" s="1">
         <v>0.05</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>236</v>
       </c>
       <c r="H95" s="1">
         <v>0.05</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" t="s">
+        <v>236</v>
       </c>
       <c r="H96" s="1">
         <v>0.05</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" t="s">
+        <v>236</v>
       </c>
       <c r="H97" s="1">
         <v>0.05</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>236</v>
       </c>
       <c r="H98" s="1">
         <v>0.05</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" t="s">
+        <v>236</v>
       </c>
       <c r="H99" s="1">
         <v>0.05</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
       </c>
       <c r="H100" s="1">
         <v>0.01</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
+        <v>238</v>
       </c>
       <c r="H101" s="1">
         <v>0.05</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" t="s">
+        <v>238</v>
       </c>
       <c r="H102" s="1">
         <v>0.05</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" t="s">
+        <v>238</v>
       </c>
       <c r="H103" s="1">
         <v>0.05</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" t="s">
+        <v>238</v>
       </c>
       <c r="H104" s="1">
         <v>0.05</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" t="s">
+        <v>238</v>
       </c>
       <c r="H105" s="1">
         <v>0.05</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" t="s">
+        <v>239</v>
       </c>
       <c r="H106" s="1">
         <v>0.05</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
       </c>
       <c r="H107" s="1">
         <v>0.01</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" t="s">
+        <v>239</v>
       </c>
       <c r="H108" s="1">
         <v>0.05</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" t="s">
+        <v>240</v>
       </c>
       <c r="H109" s="1">
         <v>0.01</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>241</v>
       </c>
       <c r="H110" s="1">
         <v>0.01</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" t="s">
+        <v>242</v>
       </c>
       <c r="H111" s="1">
         <v>0.01</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" t="s">
+        <v>243</v>
       </c>
       <c r="H112" s="1">
         <v>0.01</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" t="s">
+        <v>242</v>
       </c>
       <c r="H113" s="1">
         <v>0.01</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" t="s">
+        <v>244</v>
       </c>
       <c r="H114" s="1">
         <v>0.01</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A80:K114">
-    <sortCondition ref="J80:J114"/>
+  <sortState ref="A53:H64">
+    <sortCondition ref="G53:G64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
